--- a/[05]Docs/BOM List.xlsx
+++ b/[05]Docs/BOM List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaand\Desktop\Okul\EE463-Hardware-Project-2025\[05]Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A2D7B4-D6FE-43AD-91CE-460DB40668D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417B8E7C-6F98-4195-A067-79F4E165F01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,43 +35,6 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="2">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="2" v="0"/>
-    </bk>
-  </valueMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
@@ -294,13 +257,13 @@
     <t>https://www.motorobit.com/arduino-5li-buton-modulu?srsltid=AfmBOopDyxCoQPpqMcwqaybCtM8J6fLhEOI0xNTWCUEznHC3n7xuacHjVdo</t>
   </si>
   <si>
-    <t>https://www.komponentci.net/ic-138-toggle-switch-on-off-5mm-smts-202-pmu7299</t>
-  </si>
-  <si>
     <t>https://www.direnc.net/dc134d-3p-on-off-anahtar-220v-15mm-isikli-yuvarlak?language=tr&amp;h=ff36214d&amp;srsltid=AfmBOopG4A1XwkREyORR278tBpL7vYW4-07X7U69qTrkmWW7qlyOuDLyRnY</t>
   </si>
   <si>
     <t>https://www.motorobit.com/kulakli-erkek-power-soketi-isikli-anahtarli?srsltid=AfmBOoqlt-VrM2FhGPwY6LHi55f2reIAFzUUkI73KcxCCAPkA0PizmAw2Ik</t>
+  </si>
+  <si>
+    <t>https://www.komponentci.net/ic-140-toggle-switch-on-off-on-6mm-3p-mts-103-pmu6948</t>
   </si>
 </sst>
 </file>
@@ -472,11 +435,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
@@ -501,116 +463,6 @@
   <dxfs count="22">
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -618,18 +470,6 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
         <bottom/>
       </border>
     </dxf>
@@ -650,6 +490,20 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="&quot;₺&quot;#,##0.00"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -669,6 +523,20 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -687,6 +555,20 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -705,6 +587,20 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -723,6 +619,20 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -741,6 +651,20 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -759,6 +683,20 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -774,6 +712,18 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -801,25 +751,37 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <left style="double">
+          <color indexed="64"/>
+        </left>
+        <right style="double">
+          <color indexed="64"/>
+        </right>
+        <top style="double">
+          <color indexed="64"/>
+        </top>
+        <bottom style="double">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="double">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="double">
+        <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="double">
-          <color indexed="64"/>
-        </top>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -837,81 +799,19 @@
 </styleSheet>
 </file>
 
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <rv s="0">
-    <v>3</v>
-    <v>8</v>
-    <v>0</v>
-    <v>5</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_error">
-    <k n="colOffset" t="i"/>
-    <k n="errorType" t="i"/>
-    <k n="rwOffset" t="i"/>
-    <k n="subType" t="i"/>
-  </s>
-</rvStructures>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{38B4B4CA-CEBB-4257-8159-AF799D57B1D6}" name="Tablo1" displayName="Tablo1" ref="A1:I39" headerRowDxfId="9" headerRowBorderDxfId="20" tableBorderDxfId="21" totalsRowBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{38B4B4CA-CEBB-4257-8159-AF799D57B1D6}" name="Tablo1" displayName="Tablo1" ref="A1:I39" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
   <autoFilter ref="A1:I39" xr:uid="{38B4B4CA-CEBB-4257-8159-AF799D57B1D6}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{07F9C1B0-2E3C-41BD-AFE7-C6602C76BDA6}" name="Model Name" totalsRowLabel="Toplam" dataDxfId="18" totalsRowDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{A612A64B-66D4-4FCF-9417-165CE2F2DFCD}" name=" Link" dataDxfId="17" totalsRowDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{F6218591-5622-4412-B537-9A808C4EF453}" name="Price" dataDxfId="16" totalsRowDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{FA4C3E0A-12DA-4C09-BCF3-0B890A7E06BC}" name="Number For One Set  " dataDxfId="15" totalsRowDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{BED7F979-04C6-4DAE-AD28-16DD1A9E581E}" name="Number of Sets" dataDxfId="14" totalsRowDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{3037B2D9-5A0E-4054-B23E-C589137F554B}" name="Extra" dataDxfId="13" totalsRowDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{4CA6BC76-9EA4-4301-92DF-D69770FA137B}" name="Total Number" dataDxfId="12" totalsRowDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{29EB3D03-36AC-456A-BDCC-D25921C6E29E}" name="Total Price For Each Model" dataDxfId="11" totalsRowDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{B6677F07-7C50-499C-82FE-5CA91D90DE99}" name="Datasheet Link" totalsRowFunction="count" dataDxfId="10" totalsRowDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{07F9C1B0-2E3C-41BD-AFE7-C6602C76BDA6}" name="Model Name" totalsRowLabel="Toplam" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{A612A64B-66D4-4FCF-9417-165CE2F2DFCD}" name=" Link" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{F6218591-5622-4412-B537-9A808C4EF453}" name="Price" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{FA4C3E0A-12DA-4C09-BCF3-0B890A7E06BC}" name="Number For One Set  " dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{BED7F979-04C6-4DAE-AD28-16DD1A9E581E}" name="Number of Sets" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{3037B2D9-5A0E-4054-B23E-C589137F554B}" name="Extra" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{4CA6BC76-9EA4-4301-92DF-D69770FA137B}" name="Total Number" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{29EB3D03-36AC-456A-BDCC-D25921C6E29E}" name="Total Price For Each Model" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{B6677F07-7C50-499C-82FE-5CA91D90DE99}" name="Datasheet Link" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1183,7 +1083,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1200,36 +1100,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1244,23 +1144,23 @@
       <c r="E2" s="1">
         <v>2</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="1">
         <v>2</v>
       </c>
       <c r="G2" s="1">
         <f>D2*E2+F2</f>
         <v>10</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <f>C2*G2</f>
         <v>747.2</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1272,26 +1172,26 @@
       <c r="D3" s="1">
         <v>4</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G30" si="0">D3*E3+F3</f>
+        <f t="shared" ref="G3:G32" si="0">D3*E3+F3</f>
         <v>8</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <f t="shared" ref="H3:H32" si="1">C3*G3</f>
         <v>204.56</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1313,16 +1213,16 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <f t="shared" si="1"/>
         <v>17.34</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1344,16 +1244,16 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <f t="shared" si="1"/>
         <v>313.20000000000005</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1375,14 +1275,14 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <f t="shared" si="1"/>
         <v>28.8</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1404,14 +1304,14 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <f t="shared" si="1"/>
         <v>179.57</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="1"/>
@@ -1423,14 +1323,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1452,14 +1352,14 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <f t="shared" si="1"/>
         <v>392.56</v>
       </c>
-      <c r="I9" s="7"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1481,14 +1381,14 @@
         <f>D10*E10+F10</f>
         <v>2</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <f t="shared" si="1"/>
         <v>897.84</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1510,14 +1410,14 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <f t="shared" si="1"/>
         <v>344.64</v>
       </c>
-      <c r="I11" s="7"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1539,14 +1439,14 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <f t="shared" si="1"/>
         <v>2.8699999999999997</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1568,14 +1468,14 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <f t="shared" si="1"/>
         <v>40.94</v>
       </c>
-      <c r="I13" s="7"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1597,14 +1497,14 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <f t="shared" si="1"/>
         <v>8.19</v>
       </c>
-      <c r="I14" s="7"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1626,14 +1526,14 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <f t="shared" si="1"/>
         <v>19.04</v>
       </c>
-      <c r="I15" s="7"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1655,14 +1555,14 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <f t="shared" si="1"/>
         <v>14.4</v>
       </c>
-      <c r="I16" s="7"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1684,14 +1584,14 @@
         <f>D17*E17+F17</f>
         <v>30</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1713,14 +1613,14 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-      <c r="I18" s="7"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1742,14 +1642,14 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-      <c r="I19" s="7"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1771,14 +1671,14 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <f t="shared" si="1"/>
         <v>9.3000000000000007</v>
       </c>
-      <c r="I20" s="7"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1800,14 +1700,14 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-      <c r="I21" s="7"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1829,14 +1729,14 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-      <c r="I22" s="7"/>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1858,14 +1758,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <f t="shared" si="1"/>
         <v>641.04</v>
       </c>
-      <c r="I23" s="7"/>
+      <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1887,14 +1787,14 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="3">
         <f t="shared" si="1"/>
         <v>148.86000000000001</v>
       </c>
-      <c r="I24" s="7"/>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1916,14 +1816,14 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="3">
         <f t="shared" si="1"/>
         <v>149.69999999999999</v>
       </c>
-      <c r="I25" s="7"/>
+      <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B26" s="1"/>
@@ -1935,18 +1835,18 @@
         <f>D26*E26+F26</f>
         <v>0</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I26" s="7"/>
+      <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C27" s="1">
         <v>44.37</v>
@@ -1964,14 +1864,14 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="3">
         <f t="shared" si="1"/>
         <v>44.37</v>
       </c>
-      <c r="I27" s="7"/>
+      <c r="I27" s="6"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1993,21 +1893,21 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="3">
         <f t="shared" si="1"/>
         <v>78.3</v>
       </c>
-      <c r="I28" s="7"/>
+      <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C29" s="1">
-        <v>19.39</v>
+        <v>16.079999999999998</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
@@ -2022,18 +1922,18 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H29" s="4">
-        <f t="shared" si="1"/>
-        <v>19.39</v>
-      </c>
-      <c r="I29" s="7"/>
+      <c r="H29" s="3">
+        <f t="shared" si="1"/>
+        <v>16.079999999999998</v>
+      </c>
+      <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C30" s="1">
         <v>23.83</v>
@@ -2051,14 +1951,14 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="3">
         <f t="shared" si="1"/>
         <v>23.83</v>
       </c>
-      <c r="I30" s="7"/>
+      <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -2067,21 +1967,30 @@
       <c r="C31" s="1">
         <v>1.01</v>
       </c>
-      <c r="D31" s="1" t="e" cm="1" vm="1">
-        <f t="array" aca="1" ref="D31" ca="1">D23:G23</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="7"/>
+      <c r="D31" s="1">
+        <f>D23</f>
+        <v>2</v>
+      </c>
+      <c r="E31" s="1">
+        <f>E23</f>
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <f>F23</f>
+        <v>6</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H31" s="3">
+        <f>C31*G31</f>
+        <v>8.08</v>
+      </c>
+      <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2090,21 +1999,30 @@
       <c r="C32" s="1">
         <v>0.88</v>
       </c>
-      <c r="D32" s="1" t="e" cm="1" vm="1">
-        <f t="array" aca="1" ref="D32" ca="1">D25:G25</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="7"/>
+      <c r="D32" s="1">
+        <f>D25</f>
+        <v>2</v>
+      </c>
+      <c r="E32" s="1">
+        <f>E25</f>
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <f>F25</f>
+        <v>4</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H32" s="3">
+        <f t="shared" si="1"/>
+        <v>5.28</v>
+      </c>
+      <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
+      <c r="A33" s="4"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -2112,10 +2030,10 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="7"/>
+      <c r="I33" s="6"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
+      <c r="A34" s="4"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -2123,10 +2041,10 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="7"/>
+      <c r="I34" s="6"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
+      <c r="A35" s="4"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -2134,10 +2052,10 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="7"/>
+      <c r="I35" s="6"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
+      <c r="A36" s="4"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -2145,59 +2063,59 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="7"/>
+      <c r="I36" s="6"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="13">
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="12">
         <f>SUM(H2:H32)</f>
-        <v>4360.4400000000005</v>
-      </c>
-      <c r="I37" s="14"/>
+        <v>4370.49</v>
+      </c>
+      <c r="I37" s="13"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="15">
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="14">
         <v>100</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="11">
         <v>42.54</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="12">
         <f>F38*G38</f>
         <v>4254</v>
       </c>
-      <c r="I38" s="14"/>
+      <c r="I38" s="13"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="18">
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="17">
         <f>H38-H37</f>
-        <v>-106.44000000000051</v>
-      </c>
-      <c r="I39" s="19"/>
+        <v>-116.48999999999978</v>
+      </c>
+      <c r="I39" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/[05]Docs/BOM List.xlsx
+++ b/[05]Docs/BOM List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaand\Desktop\Okul\EE463-Hardware-Project-2025\[05]Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\4.sınıf 1. dönem\EE463\EE463-Hardware-Project-2025\[05]Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417B8E7C-6F98-4195-A067-79F4E165F01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FFBA2A-C3CC-487B-ACE3-611C28EAB3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -1086,20 +1086,20 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="64" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>30</v>
       </c>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -1503,7 +1503,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>34</v>
       </c>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>61</v>
       </c>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>62</v>
       </c>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>60</v>
       </c>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>64</v>
       </c>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>39</v>
       </c>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>63</v>
       </c>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>66</v>
       </c>
@@ -1735,7 +1735,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>42</v>
       </c>
@@ -1764,7 +1764,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>44</v>
       </c>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>45</v>
       </c>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>51</v>
       </c>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>52</v>
       </c>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>53</v>
       </c>
@@ -1899,7 +1899,7 @@
       </c>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>54</v>
       </c>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>55</v>
       </c>
@@ -1957,7 +1957,7 @@
       </c>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>67</v>
       </c>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>70</v>
       </c>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2032,7 +2032,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2043,7 +2043,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2054,7 +2054,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2065,7 +2065,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>47</v>
       </c>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="I37" s="13"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>56</v>
       </c>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="I38" s="13"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
         <v>57</v>
       </c>
